--- a/matrix/Comparison of searches.xlsx
+++ b/matrix/Comparison of searches.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>The  first type of generation</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>2X8192</t>
+  </si>
+  <si>
+    <t>The ratio of two generation types</t>
   </si>
 </sst>
 </file>
@@ -199,48 +202,48 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>89.0</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>122.0</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>339.0</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>639.0</c:v>
+                  <c:v>699.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1224.0</c:v>
+                  <c:v>1420.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2372.0</c:v>
+                  <c:v>2398.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5728.0</c:v>
+                  <c:v>6844.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15234.0</c:v>
+                  <c:v>14881.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46361.0</c:v>
+                  <c:v>69719.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>152651.0</c:v>
+                  <c:v>158020.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>320975.0</c:v>
+                  <c:v>319992.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>853517.0</c:v>
+                  <c:v>823697.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="true"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -304,43 +307,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2504.0</c:v>
+                  <c:v>2501.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3738.0</c:v>
+                  <c:v>3724.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4390.0</c:v>
+                  <c:v>4409.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4790.0</c:v>
+                  <c:v>4812.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5056.0</c:v>
+                  <c:v>6080.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5334.0</c:v>
+                  <c:v>5550.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5884.0</c:v>
+                  <c:v>5954.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5785.0</c:v>
+                  <c:v>5906.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7332.0</c:v>
+                  <c:v>7613.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10214.0</c:v>
+                  <c:v>13589.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21332.0</c:v>
+                  <c:v>20778.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31996.0</c:v>
+                  <c:v>31037.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75465.0</c:v>
+                  <c:v>72676.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,7 +357,7 @@
             <c:v>Exponential</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="circle"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -409,43 +412,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5986.0</c:v>
+                  <c:v>5684.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8488.0</c:v>
+                  <c:v>8482.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9949.0</c:v>
+                  <c:v>10024.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10853.0</c:v>
+                  <c:v>10898.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12749.0</c:v>
+                  <c:v>12595.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12119.0</c:v>
+                  <c:v>13729.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12452.0</c:v>
+                  <c:v>12560.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12933.0</c:v>
+                  <c:v>13457.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15440.0</c:v>
+                  <c:v>15900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20727.0</c:v>
+                  <c:v>28678.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45356.0</c:v>
+                  <c:v>45248.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>77477.0</c:v>
+                  <c:v>75459.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>181764.0</c:v>
+                  <c:v>176571.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,6 +496,7 @@
       <c:valAx>
         <c:axId val="1"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="false"/>
@@ -627,48 +631,48 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>83.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.0</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>336.0</c:v>
+                  <c:v>335.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>675.0</c:v>
+                  <c:v>620.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1186.0</c:v>
+                  <c:v>1282.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2347.0</c:v>
+                  <c:v>2355.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5816.0</c:v>
+                  <c:v>5421.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14491.0</c:v>
+                  <c:v>14783.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31171.0</c:v>
+                  <c:v>36405.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63767.0</c:v>
+                  <c:v>79801.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>149187.0</c:v>
+                  <c:v>134891.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>306058.0</c:v>
+                  <c:v>297116.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="true"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -732,43 +736,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5049.0</c:v>
+                  <c:v>4943.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4954.0</c:v>
+                  <c:v>5143.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4974.0</c:v>
+                  <c:v>4925.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5077.0</c:v>
+                  <c:v>4984.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5358.0</c:v>
+                  <c:v>5022.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5046.0</c:v>
+                  <c:v>5108.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5317.0</c:v>
+                  <c:v>5156.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5546.0</c:v>
+                  <c:v>5591.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6760.0</c:v>
+                  <c:v>6566.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8682.0</c:v>
+                  <c:v>10416.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12292.0</c:v>
+                  <c:v>16671.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20046.0</c:v>
+                  <c:v>22329.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33379.0</c:v>
+                  <c:v>33954.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,7 +786,7 @@
             <c:v>Exponential</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="circle"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -837,43 +841,472 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>11481.0</c:v>
+                  <c:v>11283.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11211.0</c:v>
+                  <c:v>11419.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11262.0</c:v>
+                  <c:v>11400.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11347.0</c:v>
+                  <c:v>11331.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13173.0</c:v>
+                  <c:v>11418.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11549.0</c:v>
+                  <c:v>11572.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12066.0</c:v>
+                  <c:v>11983.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12404.0</c:v>
+                  <c:v>12441.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14170.0</c:v>
+                  <c:v>13925.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16511.0</c:v>
+                  <c:v>21413.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21873.0</c:v>
+                  <c:v>33683.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33078.0</c:v>
+                  <c:v>35145.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60384.0</c:v>
+                  <c:v>61116.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="true"/>
+        </c:ser>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr anchor="t" rtlCol="false"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Column</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+        </c:title>
+        <c:numFmt sourceLinked="true" formatCode=""/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="false"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr anchor="t" rtlCol="false"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Binary &amp; ladder &amp; Exponential</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+        </c:title>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="0"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="true"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr anchor="t" rtlCol="false"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>The ratio of two generation types</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="false"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Binary</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="star"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$A$35:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2X8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4X8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8X8192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16X8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32X8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64X8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128X8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256X8192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512X8192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024X8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048X8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096X8192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192X8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$B$35:$B$47</c:f>
+              <c:numCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.9634146341463414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0178571428571428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0149253731343284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1274193548387097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.107644305772231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0182590233545648</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2624976941523705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0066292362849218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.91509408048345</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.980175687021466</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3722264643304594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7723077855113827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="true"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ladder</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$A$35:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2X8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4X8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8X8192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16X8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32X8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64X8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128X8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256X8192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512X8192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024X8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048X8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096X8192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192X8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$35:$C$47</c:f>
+              <c:numCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.5059680356059073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7240909974722924</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8952284263959391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9654895666131621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.210673038630028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.086530931871574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1547711404189294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.056340547308174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1594578129759368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3046274961597542</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.246355947453662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3899861167092122</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.140425281262885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="true"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Exponential</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$A$35:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2X8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4X8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8X8192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16X8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32X8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64X8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128X8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256X8192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512X8192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024X8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048X8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096X8192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192X8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$D$35:$D$47</c:f>
+              <c:numCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.5037667287069042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7427970925650232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8792982456140351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9617862501103168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1030828516377649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1863982025578983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0481515480263708</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0816654609758058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1418312387791743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3392798767104095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3433482765786895</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1470763977806233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8891125073630475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,12 +1462,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="5334000" cy="4381500"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1064,13 +1527,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>89.0</v>
+        <v>79.0</v>
       </c>
       <c r="C3" t="n">
-        <v>2504.0</v>
+        <v>2501.0</v>
       </c>
       <c r="D3" t="n">
-        <v>5986.0</v>
+        <v>5684.0</v>
       </c>
     </row>
     <row r="4">
@@ -1078,13 +1541,13 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>122.0</v>
+        <v>114.0</v>
       </c>
       <c r="C4" t="n">
-        <v>3738.0</v>
+        <v>3724.0</v>
       </c>
       <c r="D4" t="n">
-        <v>8488.0</v>
+        <v>8482.0</v>
       </c>
     </row>
     <row r="5">
@@ -1092,13 +1555,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>223.0</v>
+        <v>199.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4390.0</v>
+        <v>4409.0</v>
       </c>
       <c r="D5" t="n">
-        <v>9949.0</v>
+        <v>10024.0</v>
       </c>
     </row>
     <row r="6">
@@ -1106,13 +1569,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>339.0</v>
+        <v>340.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4790.0</v>
+        <v>4812.0</v>
       </c>
       <c r="D6" t="n">
-        <v>10853.0</v>
+        <v>10898.0</v>
       </c>
     </row>
     <row r="7">
@@ -1120,13 +1583,13 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>639.0</v>
+        <v>699.0</v>
       </c>
       <c r="C7" t="n">
-        <v>5056.0</v>
+        <v>6080.0</v>
       </c>
       <c r="D7" t="n">
-        <v>12749.0</v>
+        <v>12595.0</v>
       </c>
     </row>
     <row r="8">
@@ -1134,13 +1597,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1224.0</v>
+        <v>1420.0</v>
       </c>
       <c r="C8" t="n">
-        <v>5334.0</v>
+        <v>5550.0</v>
       </c>
       <c r="D8" t="n">
-        <v>12119.0</v>
+        <v>13729.0</v>
       </c>
     </row>
     <row r="9">
@@ -1148,13 +1611,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2372.0</v>
+        <v>2398.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5884.0</v>
+        <v>5954.0</v>
       </c>
       <c r="D9" t="n">
-        <v>12452.0</v>
+        <v>12560.0</v>
       </c>
     </row>
     <row r="10">
@@ -1162,13 +1625,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>5728.0</v>
+        <v>6844.0</v>
       </c>
       <c r="C10" t="n">
-        <v>5785.0</v>
+        <v>5906.0</v>
       </c>
       <c r="D10" t="n">
-        <v>12933.0</v>
+        <v>13457.0</v>
       </c>
     </row>
     <row r="11">
@@ -1176,13 +1639,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15234.0</v>
+        <v>14881.0</v>
       </c>
       <c r="C11" t="n">
-        <v>7332.0</v>
+        <v>7613.0</v>
       </c>
       <c r="D11" t="n">
-        <v>15440.0</v>
+        <v>15900.0</v>
       </c>
     </row>
     <row r="12">
@@ -1190,13 +1653,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>46361.0</v>
+        <v>69719.0</v>
       </c>
       <c r="C12" t="n">
-        <v>10214.0</v>
+        <v>13589.0</v>
       </c>
       <c r="D12" t="n">
-        <v>20727.0</v>
+        <v>28678.0</v>
       </c>
     </row>
     <row r="13">
@@ -1204,13 +1667,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="n">
-        <v>152651.0</v>
+        <v>158020.0</v>
       </c>
       <c r="C13" t="n">
-        <v>21332.0</v>
+        <v>20778.0</v>
       </c>
       <c r="D13" t="n">
-        <v>45356.0</v>
+        <v>45248.0</v>
       </c>
     </row>
     <row r="14">
@@ -1218,13 +1681,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>320975.0</v>
+        <v>319992.0</v>
       </c>
       <c r="C14" t="n">
-        <v>31996.0</v>
+        <v>31037.0</v>
       </c>
       <c r="D14" t="n">
-        <v>77477.0</v>
+        <v>75459.0</v>
       </c>
     </row>
     <row r="15">
@@ -1232,13 +1695,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>853517.0</v>
+        <v>823697.0</v>
       </c>
       <c r="C15" t="n">
-        <v>75465.0</v>
+        <v>72676.0</v>
       </c>
       <c r="D15" t="n">
-        <v>181764.0</v>
+        <v>176571.0</v>
       </c>
     </row>
     <row r="17">
@@ -1265,13 +1728,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>83.0</v>
+        <v>82.0</v>
       </c>
       <c r="C19" t="n">
-        <v>5049.0</v>
+        <v>4943.0</v>
       </c>
       <c r="D19" t="n">
-        <v>11481.0</v>
+        <v>11283.0</v>
       </c>
     </row>
     <row r="20">
@@ -1279,13 +1742,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>116.0</v>
+        <v>112.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4954.0</v>
+        <v>5143.0</v>
       </c>
       <c r="D20" t="n">
-        <v>11211.0</v>
+        <v>11419.0</v>
       </c>
     </row>
     <row r="21">
@@ -1293,13 +1756,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>197.0</v>
+        <v>199.0</v>
       </c>
       <c r="C21" t="n">
-        <v>4974.0</v>
+        <v>4925.0</v>
       </c>
       <c r="D21" t="n">
-        <v>11262.0</v>
+        <v>11400.0</v>
       </c>
     </row>
     <row r="22">
@@ -1307,13 +1770,13 @@
         <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>336.0</v>
+        <v>335.0</v>
       </c>
       <c r="C22" t="n">
-        <v>5077.0</v>
+        <v>4984.0</v>
       </c>
       <c r="D22" t="n">
-        <v>11347.0</v>
+        <v>11331.0</v>
       </c>
     </row>
     <row r="23">
@@ -1321,13 +1784,13 @@
         <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>675.0</v>
+        <v>620.0</v>
       </c>
       <c r="C23" t="n">
-        <v>5358.0</v>
+        <v>5022.0</v>
       </c>
       <c r="D23" t="n">
-        <v>13173.0</v>
+        <v>11418.0</v>
       </c>
     </row>
     <row r="24">
@@ -1335,13 +1798,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>1186.0</v>
+        <v>1282.0</v>
       </c>
       <c r="C24" t="n">
-        <v>5046.0</v>
+        <v>5108.0</v>
       </c>
       <c r="D24" t="n">
-        <v>11549.0</v>
+        <v>11572.0</v>
       </c>
     </row>
     <row r="25">
@@ -1349,13 +1812,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>2347.0</v>
+        <v>2355.0</v>
       </c>
       <c r="C25" t="n">
-        <v>5317.0</v>
+        <v>5156.0</v>
       </c>
       <c r="D25" t="n">
-        <v>12066.0</v>
+        <v>11983.0</v>
       </c>
     </row>
     <row r="26">
@@ -1363,13 +1826,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="n">
-        <v>5816.0</v>
+        <v>5421.0</v>
       </c>
       <c r="C26" t="n">
-        <v>5546.0</v>
+        <v>5591.0</v>
       </c>
       <c r="D26" t="n">
-        <v>12404.0</v>
+        <v>12441.0</v>
       </c>
     </row>
     <row r="27">
@@ -1377,13 +1840,13 @@
         <v>10</v>
       </c>
       <c r="B27" t="n">
-        <v>14491.0</v>
+        <v>14783.0</v>
       </c>
       <c r="C27" t="n">
-        <v>6760.0</v>
+        <v>6566.0</v>
       </c>
       <c r="D27" t="n">
-        <v>14170.0</v>
+        <v>13925.0</v>
       </c>
     </row>
     <row r="28">
@@ -1391,13 +1854,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="n">
-        <v>31171.0</v>
+        <v>36405.0</v>
       </c>
       <c r="C28" t="n">
-        <v>8682.0</v>
+        <v>10416.0</v>
       </c>
       <c r="D28" t="n">
-        <v>16511.0</v>
+        <v>21413.0</v>
       </c>
     </row>
     <row r="29">
@@ -1405,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="B29" t="n">
-        <v>63767.0</v>
+        <v>79801.0</v>
       </c>
       <c r="C29" t="n">
-        <v>12292.0</v>
+        <v>16671.0</v>
       </c>
       <c r="D29" t="n">
-        <v>21873.0</v>
+        <v>33683.0</v>
       </c>
     </row>
     <row r="30">
@@ -1419,13 +1882,13 @@
         <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>149187.0</v>
+        <v>134891.0</v>
       </c>
       <c r="C30" t="n">
-        <v>20046.0</v>
+        <v>22329.0</v>
       </c>
       <c r="D30" t="n">
-        <v>33078.0</v>
+        <v>35145.0</v>
       </c>
     </row>
     <row r="31">
@@ -1433,19 +1896,221 @@
         <v>6</v>
       </c>
       <c r="B31" t="n">
-        <v>306058.0</v>
+        <v>297116.0</v>
       </c>
       <c r="C31" t="n">
-        <v>33379.0</v>
+        <v>33954.0</v>
       </c>
       <c r="D31" t="n">
-        <v>60384.0</v>
+        <v>61116.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9634146341463414</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5059680356059073</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5037667287069042</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.0178571428571428</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7240909974722924</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7427970925650232</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8952284263959391</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8792982456140351</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.0149253731343284</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9654895666131621</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9617862501103168</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.1274193548387097</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.210673038630028</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.1030828516377649</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.107644305772231</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.086530931871574</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.1863982025578983</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.0182590233545648</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.1547711404189294</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.0481515480263708</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.2624976941523705</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.056340547308174</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.0816654609758058</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.0066292362849218</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.1594578129759368</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.1418312387791743</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.91509408048345</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.3046274961597542</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.3392798767104095</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.980175687021466</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.246355947453662</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.3433482765786895</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.3722264643304594</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.3899861167092122</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.1470763977806233</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.7723077855113827</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.140425281262885</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.8891125073630475</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/matrix/Comparison of searches.xlsx
+++ b/matrix/Comparison of searches.xlsx
@@ -32,43 +32,43 @@
     <t>The  second type of generation</t>
   </si>
   <si>
-    <t>8192X8192</t>
+    <t>2X8192</t>
+  </si>
+  <si>
+    <t>4X8192</t>
+  </si>
+  <si>
+    <t>8X8192</t>
+  </si>
+  <si>
+    <t>16X8192</t>
+  </si>
+  <si>
+    <t>32X8192</t>
+  </si>
+  <si>
+    <t>64X8192</t>
+  </si>
+  <si>
+    <t>128X8192</t>
+  </si>
+  <si>
+    <t>256X8192</t>
+  </si>
+  <si>
+    <t>512X8192</t>
+  </si>
+  <si>
+    <t>1024X8192</t>
+  </si>
+  <si>
+    <t>2048X8192</t>
   </si>
   <si>
     <t>4096X8192</t>
   </si>
   <si>
-    <t>2048X8192</t>
-  </si>
-  <si>
-    <t>1024X8192</t>
-  </si>
-  <si>
-    <t>512X8192</t>
-  </si>
-  <si>
-    <t>256X8192</t>
-  </si>
-  <si>
-    <t>128X8192</t>
-  </si>
-  <si>
-    <t>64X8192</t>
-  </si>
-  <si>
-    <t>32X8192</t>
-  </si>
-  <si>
-    <t>16X8192</t>
-  </si>
-  <si>
-    <t>8X8192</t>
-  </si>
-  <si>
-    <t>4X8192</t>
-  </si>
-  <si>
-    <t>2X8192</t>
+    <t>8192X8192</t>
   </si>
   <si>
     <t>The ratio of two generation types</t>
@@ -202,43 +202,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>79.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114.0</c:v>
+                  <c:v>119.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>340.0</c:v>
+                  <c:v>312.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>699.0</c:v>
+                  <c:v>602.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1420.0</c:v>
+                  <c:v>1214.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2398.0</c:v>
+                  <c:v>2198.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6844.0</c:v>
+                  <c:v>4916.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14881.0</c:v>
+                  <c:v>13962.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69719.0</c:v>
+                  <c:v>29901.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>158020.0</c:v>
+                  <c:v>125517.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>319992.0</c:v>
+                  <c:v>252189.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>823697.0</c:v>
+                  <c:v>536612.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -307,43 +307,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2501.0</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3724.0</c:v>
+                  <c:v>1912.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4409.0</c:v>
+                  <c:v>2099.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4812.0</c:v>
+                  <c:v>2356.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6080.0</c:v>
+                  <c:v>2595.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5550.0</c:v>
+                  <c:v>2788.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5954.0</c:v>
+                  <c:v>2603.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5906.0</c:v>
+                  <c:v>3122.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7613.0</c:v>
+                  <c:v>5222.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13589.0</c:v>
+                  <c:v>8049.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20778.0</c:v>
+                  <c:v>14339.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31037.0</c:v>
+                  <c:v>27870.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72676.0</c:v>
+                  <c:v>46732.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,43 +412,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5684.0</c:v>
+                  <c:v>3495.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8482.0</c:v>
+                  <c:v>4299.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10024.0</c:v>
+                  <c:v>4821.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10898.0</c:v>
+                  <c:v>5524.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12595.0</c:v>
+                  <c:v>6344.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13729.0</c:v>
+                  <c:v>6608.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12560.0</c:v>
+                  <c:v>6491.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13457.0</c:v>
+                  <c:v>7141.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15900.0</c:v>
+                  <c:v>8653.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28678.0</c:v>
+                  <c:v>11597.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45248.0</c:v>
+                  <c:v>19382.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75459.0</c:v>
+                  <c:v>39279.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>176571.0</c:v>
+                  <c:v>62442.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,43 +631,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>82.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199.0</c:v>
+                  <c:v>163.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>335.0</c:v>
+                  <c:v>313.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>620.0</c:v>
+                  <c:v>583.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1282.0</c:v>
+                  <c:v>1119.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2355.0</c:v>
+                  <c:v>2265.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5421.0</c:v>
+                  <c:v>5240.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14783.0</c:v>
+                  <c:v>13358.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36405.0</c:v>
+                  <c:v>30603.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79801.0</c:v>
+                  <c:v>62899.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134891.0</c:v>
+                  <c:v>124890.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>297116.0</c:v>
+                  <c:v>256699.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,43 +736,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4943.0</c:v>
+                  <c:v>2421.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5143.0</c:v>
+                  <c:v>2358.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4925.0</c:v>
+                  <c:v>2386.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4984.0</c:v>
+                  <c:v>2421.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5022.0</c:v>
+                  <c:v>2449.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5108.0</c:v>
+                  <c:v>2490.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5156.0</c:v>
+                  <c:v>2692.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5591.0</c:v>
+                  <c:v>3201.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6566.0</c:v>
+                  <c:v>4320.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10416.0</c:v>
+                  <c:v>6895.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16671.0</c:v>
+                  <c:v>11338.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22329.0</c:v>
+                  <c:v>19528.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33954.0</c:v>
+                  <c:v>35854.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,43 +841,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>11283.0</c:v>
+                  <c:v>5601.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11419.0</c:v>
+                  <c:v>5464.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11400.0</c:v>
+                  <c:v>5544.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11331.0</c:v>
+                  <c:v>6786.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11418.0</c:v>
+                  <c:v>5848.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11572.0</c:v>
+                  <c:v>6328.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11983.0</c:v>
+                  <c:v>6506.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12441.0</c:v>
+                  <c:v>6990.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13925.0</c:v>
+                  <c:v>7192.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21413.0</c:v>
+                  <c:v>8200.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33683.0</c:v>
+                  <c:v>9268.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35145.0</c:v>
+                  <c:v>12612.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61116.0</c:v>
+                  <c:v>15407.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,43 +1060,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.9634146341463414</c:v>
+                  <c:v>1.3125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0178571428571428</c:v>
+                  <c:v>1.2268041237113403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1.01840490797546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0149253731343284</c:v>
+                  <c:v>0.9968051118210862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1274193548387097</c:v>
+                  <c:v>1.032590051457976</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.107644305772231</c:v>
+                  <c:v>1.0848972296693475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0182590233545648</c:v>
+                  <c:v>0.9704194260485651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2624976941523705</c:v>
+                  <c:v>0.9381679389312977</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0066292362849218</c:v>
+                  <c:v>1.045216349752957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.91509408048345</c:v>
+                  <c:v>0.9770610724438781</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.980175687021466</c:v>
+                  <c:v>1.9955325203898313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3722264643304594</c:v>
+                  <c:v>2.019288974297382</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7723077855113827</c:v>
+                  <c:v>2.090432763664837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,43 +1165,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.5059680356059073</c:v>
+                  <c:v>0.8244527054935977</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7240909974722924</c:v>
+                  <c:v>0.8108566581849025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8952284263959391</c:v>
+                  <c:v>0.8797150041911148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9654895666131621</c:v>
+                  <c:v>0.973151590251962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.210673038630028</c:v>
+                  <c:v>1.059616169865251</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.086530931871574</c:v>
+                  <c:v>1.1196787148594378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1547711404189294</c:v>
+                  <c:v>0.9669390787518574</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.056340547308174</c:v>
+                  <c:v>0.9753202124336144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1594578129759368</c:v>
+                  <c:v>1.2087962962962964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3046274961597542</c:v>
+                  <c:v>1.1673676577229877</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.246355947453662</c:v>
+                  <c:v>1.2646851296524961</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3899861167092122</c:v>
+                  <c:v>1.427181482998771</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.140425281262885</c:v>
+                  <c:v>1.3033971105037094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,43 +1270,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.5037667287069042</c:v>
+                  <c:v>0.6239957150508838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7427970925650232</c:v>
+                  <c:v>0.7867862371888726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8792982456140351</c:v>
+                  <c:v>0.8695887445887446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9617862501103168</c:v>
+                  <c:v>0.8140288829944002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1030828516377649</c:v>
+                  <c:v>1.084815321477428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1863982025578983</c:v>
+                  <c:v>1.0442477876106195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0481515480263708</c:v>
+                  <c:v>0.9976944359053181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0816654609758058</c:v>
+                  <c:v>1.0216022889842633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1418312387791743</c:v>
+                  <c:v>1.203142380422692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3392798767104095</c:v>
+                  <c:v>1.4142682926829269</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3433482765786895</c:v>
+                  <c:v>2.091281829952525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1470763977806233</c:v>
+                  <c:v>3.1144148430066605</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8891125073630475</c:v>
+                  <c:v>4.052833127799053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,86 +1524,86 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>79.0</v>
+        <v>105.0</v>
       </c>
       <c r="C3" t="n">
-        <v>2501.0</v>
+        <v>1996.0</v>
       </c>
       <c r="D3" t="n">
-        <v>5684.0</v>
+        <v>3495.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>114.0</v>
+        <v>119.0</v>
       </c>
       <c r="C4" t="n">
-        <v>3724.0</v>
+        <v>1912.0</v>
       </c>
       <c r="D4" t="n">
-        <v>8482.0</v>
+        <v>4299.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>199.0</v>
+        <v>166.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4409.0</v>
+        <v>2099.0</v>
       </c>
       <c r="D5" t="n">
-        <v>10024.0</v>
+        <v>4821.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>340.0</v>
+        <v>312.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4812.0</v>
+        <v>2356.0</v>
       </c>
       <c r="D6" t="n">
-        <v>10898.0</v>
+        <v>5524.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>699.0</v>
+        <v>602.0</v>
       </c>
       <c r="C7" t="n">
-        <v>6080.0</v>
+        <v>2595.0</v>
       </c>
       <c r="D7" t="n">
-        <v>12595.0</v>
+        <v>6344.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>1420.0</v>
+        <v>1214.0</v>
       </c>
       <c r="C8" t="n">
-        <v>5550.0</v>
+        <v>2788.0</v>
       </c>
       <c r="D8" t="n">
-        <v>13729.0</v>
+        <v>6608.0</v>
       </c>
     </row>
     <row r="9">
@@ -1611,97 +1611,97 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2398.0</v>
+        <v>2198.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5954.0</v>
+        <v>2603.0</v>
       </c>
       <c r="D9" t="n">
-        <v>12560.0</v>
+        <v>6491.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>6844.0</v>
+        <v>4916.0</v>
       </c>
       <c r="C10" t="n">
-        <v>5906.0</v>
+        <v>3122.0</v>
       </c>
       <c r="D10" t="n">
-        <v>13457.0</v>
+        <v>7141.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>14881.0</v>
+        <v>13962.0</v>
       </c>
       <c r="C11" t="n">
-        <v>7613.0</v>
+        <v>5222.0</v>
       </c>
       <c r="D11" t="n">
-        <v>15900.0</v>
+        <v>8653.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>69719.0</v>
+        <v>29901.0</v>
       </c>
       <c r="C12" t="n">
-        <v>13589.0</v>
+        <v>8049.0</v>
       </c>
       <c r="D12" t="n">
-        <v>28678.0</v>
+        <v>11597.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>158020.0</v>
+        <v>125517.0</v>
       </c>
       <c r="C13" t="n">
-        <v>20778.0</v>
+        <v>14339.0</v>
       </c>
       <c r="D13" t="n">
-        <v>45248.0</v>
+        <v>19382.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>319992.0</v>
+        <v>252189.0</v>
       </c>
       <c r="C14" t="n">
-        <v>31037.0</v>
+        <v>27870.0</v>
       </c>
       <c r="D14" t="n">
-        <v>75459.0</v>
+        <v>39279.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>823697.0</v>
+        <v>536612.0</v>
       </c>
       <c r="C15" t="n">
-        <v>72676.0</v>
+        <v>46732.0</v>
       </c>
       <c r="D15" t="n">
-        <v>176571.0</v>
+        <v>62442.0</v>
       </c>
     </row>
     <row r="17">
@@ -1725,86 +1725,86 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>82.0</v>
+        <v>80.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4943.0</v>
+        <v>2421.0</v>
       </c>
       <c r="D19" t="n">
-        <v>11283.0</v>
+        <v>5601.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>112.0</v>
+        <v>97.0</v>
       </c>
       <c r="C20" t="n">
-        <v>5143.0</v>
+        <v>2358.0</v>
       </c>
       <c r="D20" t="n">
-        <v>11419.0</v>
+        <v>5464.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>199.0</v>
+        <v>163.0</v>
       </c>
       <c r="C21" t="n">
-        <v>4925.0</v>
+        <v>2386.0</v>
       </c>
       <c r="D21" t="n">
-        <v>11400.0</v>
+        <v>5544.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>335.0</v>
+        <v>313.0</v>
       </c>
       <c r="C22" t="n">
-        <v>4984.0</v>
+        <v>2421.0</v>
       </c>
       <c r="D22" t="n">
-        <v>11331.0</v>
+        <v>6786.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>620.0</v>
+        <v>583.0</v>
       </c>
       <c r="C23" t="n">
-        <v>5022.0</v>
+        <v>2449.0</v>
       </c>
       <c r="D23" t="n">
-        <v>11418.0</v>
+        <v>5848.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>1282.0</v>
+        <v>1119.0</v>
       </c>
       <c r="C24" t="n">
-        <v>5108.0</v>
+        <v>2490.0</v>
       </c>
       <c r="D24" t="n">
-        <v>11572.0</v>
+        <v>6328.0</v>
       </c>
     </row>
     <row r="25">
@@ -1812,97 +1812,97 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>2355.0</v>
+        <v>2265.0</v>
       </c>
       <c r="C25" t="n">
-        <v>5156.0</v>
+        <v>2692.0</v>
       </c>
       <c r="D25" t="n">
-        <v>11983.0</v>
+        <v>6506.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>5421.0</v>
+        <v>5240.0</v>
       </c>
       <c r="C26" t="n">
-        <v>5591.0</v>
+        <v>3201.0</v>
       </c>
       <c r="D26" t="n">
-        <v>12441.0</v>
+        <v>6990.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>14783.0</v>
+        <v>13358.0</v>
       </c>
       <c r="C27" t="n">
-        <v>6566.0</v>
+        <v>4320.0</v>
       </c>
       <c r="D27" t="n">
-        <v>13925.0</v>
+        <v>7192.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>36405.0</v>
+        <v>30603.0</v>
       </c>
       <c r="C28" t="n">
-        <v>10416.0</v>
+        <v>6895.0</v>
       </c>
       <c r="D28" t="n">
-        <v>21413.0</v>
+        <v>8200.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>79801.0</v>
+        <v>62899.0</v>
       </c>
       <c r="C29" t="n">
-        <v>16671.0</v>
+        <v>11338.0</v>
       </c>
       <c r="D29" t="n">
-        <v>33683.0</v>
+        <v>9268.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>134891.0</v>
+        <v>124890.0</v>
       </c>
       <c r="C30" t="n">
-        <v>22329.0</v>
+        <v>19528.0</v>
       </c>
       <c r="D30" t="n">
-        <v>35145.0</v>
+        <v>12612.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B31" t="n">
-        <v>297116.0</v>
+        <v>256699.0</v>
       </c>
       <c r="C31" t="n">
-        <v>33954.0</v>
+        <v>35854.0</v>
       </c>
       <c r="D31" t="n">
-        <v>61116.0</v>
+        <v>15407.0</v>
       </c>
     </row>
     <row r="33">
@@ -1926,86 +1926,86 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9634146341463414</v>
+        <v>1.3125</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5059680356059073</v>
+        <v>0.8244527054935977</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5037667287069042</v>
+        <v>0.6239957150508838</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>1.0178571428571428</v>
+        <v>1.2268041237113403</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7240909974722924</v>
+        <v>0.8108566581849025</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7427970925650232</v>
+        <v>0.7867862371888726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B37" t="n">
-        <v>1.0</v>
+        <v>1.01840490797546</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8952284263959391</v>
+        <v>0.8797150041911148</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8792982456140351</v>
+        <v>0.8695887445887446</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0149253731343284</v>
+        <v>0.9968051118210862</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9654895666131621</v>
+        <v>0.973151590251962</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9617862501103168</v>
+        <v>0.8140288829944002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>1.1274193548387097</v>
+        <v>1.032590051457976</v>
       </c>
       <c r="C39" t="n">
-        <v>1.210673038630028</v>
+        <v>1.059616169865251</v>
       </c>
       <c r="D39" t="n">
-        <v>1.1030828516377649</v>
+        <v>1.084815321477428</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>1.107644305772231</v>
+        <v>1.0848972296693475</v>
       </c>
       <c r="C40" t="n">
-        <v>1.086530931871574</v>
+        <v>1.1196787148594378</v>
       </c>
       <c r="D40" t="n">
-        <v>1.1863982025578983</v>
+        <v>1.0442477876106195</v>
       </c>
     </row>
     <row r="41">
@@ -2013,97 +2013,97 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>1.0182590233545648</v>
+        <v>0.9704194260485651</v>
       </c>
       <c r="C41" t="n">
-        <v>1.1547711404189294</v>
+        <v>0.9669390787518574</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0481515480263708</v>
+        <v>0.9976944359053181</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>1.2624976941523705</v>
+        <v>0.9381679389312977</v>
       </c>
       <c r="C42" t="n">
-        <v>1.056340547308174</v>
+        <v>0.9753202124336144</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0816654609758058</v>
+        <v>1.0216022889842633</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B43" t="n">
-        <v>1.0066292362849218</v>
+        <v>1.045216349752957</v>
       </c>
       <c r="C43" t="n">
-        <v>1.1594578129759368</v>
+        <v>1.2087962962962964</v>
       </c>
       <c r="D43" t="n">
-        <v>1.1418312387791743</v>
+        <v>1.203142380422692</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B44" t="n">
-        <v>1.91509408048345</v>
+        <v>0.9770610724438781</v>
       </c>
       <c r="C44" t="n">
-        <v>1.3046274961597542</v>
+        <v>1.1673676577229877</v>
       </c>
       <c r="D44" t="n">
-        <v>1.3392798767104095</v>
+        <v>1.4142682926829269</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B45" t="n">
-        <v>1.980175687021466</v>
+        <v>1.9955325203898313</v>
       </c>
       <c r="C45" t="n">
-        <v>1.246355947453662</v>
+        <v>1.2646851296524961</v>
       </c>
       <c r="D45" t="n">
-        <v>1.3433482765786895</v>
+        <v>2.091281829952525</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B46" t="n">
-        <v>2.3722264643304594</v>
+        <v>2.019288974297382</v>
       </c>
       <c r="C46" t="n">
-        <v>1.3899861167092122</v>
+        <v>1.427181482998771</v>
       </c>
       <c r="D46" t="n">
-        <v>2.1470763977806233</v>
+        <v>3.1144148430066605</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>2.7723077855113827</v>
+        <v>2.090432763664837</v>
       </c>
       <c r="C47" t="n">
-        <v>2.140425281262885</v>
+        <v>1.3033971105037094</v>
       </c>
       <c r="D47" t="n">
-        <v>2.8891125073630475</v>
+        <v>4.052833127799053</v>
       </c>
     </row>
   </sheetData>

--- a/matrix/Comparison of searches.xlsx
+++ b/matrix/Comparison of searches.xlsx
@@ -202,43 +202,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>105.0</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>119.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>166.0</c:v>
+                  <c:v>169.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>312.0</c:v>
+                  <c:v>305.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>602.0</c:v>
+                  <c:v>599.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1214.0</c:v>
+                  <c:v>1172.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2198.0</c:v>
+                  <c:v>2182.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4916.0</c:v>
+                  <c:v>4535.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13962.0</c:v>
+                  <c:v>12566.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29901.0</c:v>
+                  <c:v>31606.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>125517.0</c:v>
+                  <c:v>117017.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>252189.0</c:v>
+                  <c:v>247793.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>536612.0</c:v>
+                  <c:v>503020.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -307,43 +307,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1996.0</c:v>
+                  <c:v>2102.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1912.0</c:v>
+                  <c:v>1809.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2099.0</c:v>
+                  <c:v>2196.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2356.0</c:v>
+                  <c:v>2319.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2595.0</c:v>
+                  <c:v>2647.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2788.0</c:v>
+                  <c:v>2506.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2603.0</c:v>
+                  <c:v>2568.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3122.0</c:v>
+                  <c:v>2981.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5222.0</c:v>
+                  <c:v>4466.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8049.0</c:v>
+                  <c:v>8088.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14339.0</c:v>
+                  <c:v>16088.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27870.0</c:v>
+                  <c:v>26501.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46732.0</c:v>
+                  <c:v>45381.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,43 +412,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3495.0</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4299.0</c:v>
+                  <c:v>119.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4821.0</c:v>
+                  <c:v>177.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5524.0</c:v>
+                  <c:v>337.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6344.0</c:v>
+                  <c:v>610.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6608.0</c:v>
+                  <c:v>1068.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6491.0</c:v>
+                  <c:v>1760.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7141.0</c:v>
+                  <c:v>2847.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8653.0</c:v>
+                  <c:v>5018.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11597.0</c:v>
+                  <c:v>11481.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19382.0</c:v>
+                  <c:v>26713.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39279.0</c:v>
+                  <c:v>46454.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62442.0</c:v>
+                  <c:v>86680.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,43 +631,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>80.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163.0</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>313.0</c:v>
+                  <c:v>346.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.0</c:v>
+                  <c:v>599.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1119.0</c:v>
+                  <c:v>1146.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2265.0</c:v>
+                  <c:v>2312.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5240.0</c:v>
+                  <c:v>4961.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13358.0</c:v>
+                  <c:v>13462.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30603.0</c:v>
+                  <c:v>30487.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62899.0</c:v>
+                  <c:v>63869.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>124890.0</c:v>
+                  <c:v>145610.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>256699.0</c:v>
+                  <c:v>255824.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,43 +736,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2421.0</c:v>
+                  <c:v>2464.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2358.0</c:v>
+                  <c:v>2372.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2386.0</c:v>
+                  <c:v>2332.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2421.0</c:v>
+                  <c:v>3002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2449.0</c:v>
+                  <c:v>2538.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2490.0</c:v>
+                  <c:v>2443.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2692.0</c:v>
+                  <c:v>2600.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3201.0</c:v>
+                  <c:v>2946.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4320.0</c:v>
+                  <c:v>4070.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6895.0</c:v>
+                  <c:v>6771.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11338.0</c:v>
+                  <c:v>12357.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19528.0</c:v>
+                  <c:v>22387.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35854.0</c:v>
+                  <c:v>38811.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,43 +841,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5601.0</c:v>
+                  <c:v>106.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5464.0</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5544.0</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6786.0</c:v>
+                  <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5848.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6328.0</c:v>
+                  <c:v>327.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6506.0</c:v>
+                  <c:v>499.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6990.0</c:v>
+                  <c:v>799.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7192.0</c:v>
+                  <c:v>1862.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8200.0</c:v>
+                  <c:v>3554.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9268.0</c:v>
+                  <c:v>7634.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12612.0</c:v>
+                  <c:v>15833.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15407.0</c:v>
+                  <c:v>28317.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,43 +1060,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.3125</c:v>
+                  <c:v>1.4805194805194806</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2268041237113403</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.01840490797546</c:v>
+                  <c:v>1.0304878048780488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9968051118210862</c:v>
+                  <c:v>0.8815028901734104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.032590051457976</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0848972296693475</c:v>
+                  <c:v>1.0226876090750436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9704194260485651</c:v>
+                  <c:v>0.9437716262975778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9381679389312977</c:v>
+                  <c:v>0.9141302156823221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.045216349752957</c:v>
+                  <c:v>0.9334422819789036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9770610724438781</c:v>
+                  <c:v>1.0367041689900613</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9955325203898313</c:v>
+                  <c:v>1.8321407881757974</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.019288974297382</c:v>
+                  <c:v>1.7017581210081725</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.090432763664837</c:v>
+                  <c:v>1.9662736881606104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,43 +1165,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.8244527054935977</c:v>
+                  <c:v>0.8530844155844156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8108566581849025</c:v>
+                  <c:v>0.7626475548060708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8797150041911148</c:v>
+                  <c:v>0.9416809605488851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.973151590251962</c:v>
+                  <c:v>0.7724850099933378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.059616169865251</c:v>
+                  <c:v>1.0429472025216706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1196787148594378</c:v>
+                  <c:v>1.0257879656160458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9669390787518574</c:v>
+                  <c:v>0.9876923076923076</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9753202124336144</c:v>
+                  <c:v>1.0118805159538358</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2087962962962964</c:v>
+                  <c:v>1.0972972972972972</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1673676577229877</c:v>
+                  <c:v>1.1945059813912273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2646851296524961</c:v>
+                  <c:v>1.3019341264060855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.427181482998771</c:v>
+                  <c:v>1.1837673649886096</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3033971105037094</c:v>
+                  <c:v>1.1692819046146712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,43 +1270,43 @@
               <c:numCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.6239957150508838</c:v>
+                  <c:v>1.0471698113207548</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7867862371888726</c:v>
+                  <c:v>1.4691358024691359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8695887445887446</c:v>
+                  <c:v>1.7352941176470589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8140288829944002</c:v>
+                  <c:v>1.8932584269662922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.084815321477428</c:v>
+                  <c:v>2.772727272727273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0442477876106195</c:v>
+                  <c:v>3.2660550458715596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9976944359053181</c:v>
+                  <c:v>3.527054108216433</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0216022889842633</c:v>
+                  <c:v>3.563204005006258</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.203142380422692</c:v>
+                  <c:v>2.694951664876477</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4142682926829269</c:v>
+                  <c:v>3.2304445694991557</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.091281829952525</c:v>
+                  <c:v>3.499214042441708</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1144148430066605</c:v>
+                  <c:v>2.933998610497063</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.052833127799053</c:v>
+                  <c:v>3.061058727972596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,13 +1527,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>105.0</v>
+        <v>114.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1996.0</v>
+        <v>2102.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3495.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="4">
@@ -1544,10 +1544,10 @@
         <v>119.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1912.0</v>
+        <v>1809.0</v>
       </c>
       <c r="D4" t="n">
-        <v>4299.0</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>166.0</v>
+        <v>169.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2099.0</v>
+        <v>2196.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4821.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="6">
@@ -1569,13 +1569,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>312.0</v>
+        <v>305.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2356.0</v>
+        <v>2319.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5524.0</v>
+        <v>337.0</v>
       </c>
     </row>
     <row r="7">
@@ -1583,13 +1583,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>602.0</v>
+        <v>599.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2595.0</v>
+        <v>2647.0</v>
       </c>
       <c r="D7" t="n">
-        <v>6344.0</v>
+        <v>610.0</v>
       </c>
     </row>
     <row r="8">
@@ -1597,13 +1597,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>1214.0</v>
+        <v>1172.0</v>
       </c>
       <c r="C8" t="n">
-        <v>2788.0</v>
+        <v>2506.0</v>
       </c>
       <c r="D8" t="n">
-        <v>6608.0</v>
+        <v>1068.0</v>
       </c>
     </row>
     <row r="9">
@@ -1611,13 +1611,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2198.0</v>
+        <v>2182.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2603.0</v>
+        <v>2568.0</v>
       </c>
       <c r="D9" t="n">
-        <v>6491.0</v>
+        <v>1760.0</v>
       </c>
     </row>
     <row r="10">
@@ -1625,13 +1625,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>4916.0</v>
+        <v>4535.0</v>
       </c>
       <c r="C10" t="n">
-        <v>3122.0</v>
+        <v>2981.0</v>
       </c>
       <c r="D10" t="n">
-        <v>7141.0</v>
+        <v>2847.0</v>
       </c>
     </row>
     <row r="11">
@@ -1639,13 +1639,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>13962.0</v>
+        <v>12566.0</v>
       </c>
       <c r="C11" t="n">
-        <v>5222.0</v>
+        <v>4466.0</v>
       </c>
       <c r="D11" t="n">
-        <v>8653.0</v>
+        <v>5018.0</v>
       </c>
     </row>
     <row r="12">
@@ -1653,13 +1653,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>29901.0</v>
+        <v>31606.0</v>
       </c>
       <c r="C12" t="n">
-        <v>8049.0</v>
+        <v>8088.0</v>
       </c>
       <c r="D12" t="n">
-        <v>11597.0</v>
+        <v>11481.0</v>
       </c>
     </row>
     <row r="13">
@@ -1667,13 +1667,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>125517.0</v>
+        <v>117017.0</v>
       </c>
       <c r="C13" t="n">
-        <v>14339.0</v>
+        <v>16088.0</v>
       </c>
       <c r="D13" t="n">
-        <v>19382.0</v>
+        <v>26713.0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,13 +1681,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>252189.0</v>
+        <v>247793.0</v>
       </c>
       <c r="C14" t="n">
-        <v>27870.0</v>
+        <v>26501.0</v>
       </c>
       <c r="D14" t="n">
-        <v>39279.0</v>
+        <v>46454.0</v>
       </c>
     </row>
     <row r="15">
@@ -1695,13 +1695,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>536612.0</v>
+        <v>503020.0</v>
       </c>
       <c r="C15" t="n">
-        <v>46732.0</v>
+        <v>45381.0</v>
       </c>
       <c r="D15" t="n">
-        <v>62442.0</v>
+        <v>86680.0</v>
       </c>
     </row>
     <row r="17">
@@ -1728,13 +1728,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>80.0</v>
+        <v>77.0</v>
       </c>
       <c r="C19" t="n">
-        <v>2421.0</v>
+        <v>2464.0</v>
       </c>
       <c r="D19" t="n">
-        <v>5601.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="20">
@@ -1742,13 +1742,13 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>97.0</v>
+        <v>100.0</v>
       </c>
       <c r="C20" t="n">
-        <v>2358.0</v>
+        <v>2372.0</v>
       </c>
       <c r="D20" t="n">
-        <v>5464.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="21">
@@ -1756,13 +1756,13 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>163.0</v>
+        <v>164.0</v>
       </c>
       <c r="C21" t="n">
-        <v>2386.0</v>
+        <v>2332.0</v>
       </c>
       <c r="D21" t="n">
-        <v>5544.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="22">
@@ -1770,13 +1770,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>313.0</v>
+        <v>346.0</v>
       </c>
       <c r="C22" t="n">
-        <v>2421.0</v>
+        <v>3002.0</v>
       </c>
       <c r="D22" t="n">
-        <v>6786.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="23">
@@ -1784,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>583.0</v>
+        <v>599.0</v>
       </c>
       <c r="C23" t="n">
-        <v>2449.0</v>
+        <v>2538.0</v>
       </c>
       <c r="D23" t="n">
-        <v>5848.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="24">
@@ -1798,13 +1798,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>1119.0</v>
+        <v>1146.0</v>
       </c>
       <c r="C24" t="n">
-        <v>2490.0</v>
+        <v>2443.0</v>
       </c>
       <c r="D24" t="n">
-        <v>6328.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="25">
@@ -1812,13 +1812,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>2265.0</v>
+        <v>2312.0</v>
       </c>
       <c r="C25" t="n">
-        <v>2692.0</v>
+        <v>2600.0</v>
       </c>
       <c r="D25" t="n">
-        <v>6506.0</v>
+        <v>499.0</v>
       </c>
     </row>
     <row r="26">
@@ -1826,13 +1826,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>5240.0</v>
+        <v>4961.0</v>
       </c>
       <c r="C26" t="n">
-        <v>3201.0</v>
+        <v>2946.0</v>
       </c>
       <c r="D26" t="n">
-        <v>6990.0</v>
+        <v>799.0</v>
       </c>
     </row>
     <row r="27">
@@ -1840,13 +1840,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>13358.0</v>
+        <v>13462.0</v>
       </c>
       <c r="C27" t="n">
-        <v>4320.0</v>
+        <v>4070.0</v>
       </c>
       <c r="D27" t="n">
-        <v>7192.0</v>
+        <v>1862.0</v>
       </c>
     </row>
     <row r="28">
@@ -1854,13 +1854,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>30603.0</v>
+        <v>30487.0</v>
       </c>
       <c r="C28" t="n">
-        <v>6895.0</v>
+        <v>6771.0</v>
       </c>
       <c r="D28" t="n">
-        <v>8200.0</v>
+        <v>3554.0</v>
       </c>
     </row>
     <row r="29">
@@ -1868,13 +1868,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>62899.0</v>
+        <v>63869.0</v>
       </c>
       <c r="C29" t="n">
-        <v>11338.0</v>
+        <v>12357.0</v>
       </c>
       <c r="D29" t="n">
-        <v>9268.0</v>
+        <v>7634.0</v>
       </c>
     </row>
     <row r="30">
@@ -1882,13 +1882,13 @@
         <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>124890.0</v>
+        <v>145610.0</v>
       </c>
       <c r="C30" t="n">
-        <v>19528.0</v>
+        <v>22387.0</v>
       </c>
       <c r="D30" t="n">
-        <v>12612.0</v>
+        <v>15833.0</v>
       </c>
     </row>
     <row r="31">
@@ -1896,13 +1896,13 @@
         <v>18</v>
       </c>
       <c r="B31" t="n">
-        <v>256699.0</v>
+        <v>255824.0</v>
       </c>
       <c r="C31" t="n">
-        <v>35854.0</v>
+        <v>38811.0</v>
       </c>
       <c r="D31" t="n">
-        <v>15407.0</v>
+        <v>28317.0</v>
       </c>
     </row>
     <row r="33">
@@ -1929,13 +1929,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="n">
-        <v>1.3125</v>
+        <v>1.4805194805194806</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8244527054935977</v>
+        <v>0.8530844155844156</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6239957150508838</v>
+        <v>1.0471698113207548</v>
       </c>
     </row>
     <row r="36">
@@ -1943,13 +1943,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>1.2268041237113403</v>
+        <v>1.19</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8108566581849025</v>
+        <v>0.7626475548060708</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7867862371888726</v>
+        <v>1.4691358024691359</v>
       </c>
     </row>
     <row r="37">
@@ -1957,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="B37" t="n">
-        <v>1.01840490797546</v>
+        <v>1.0304878048780488</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8797150041911148</v>
+        <v>0.9416809605488851</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8695887445887446</v>
+        <v>1.7352941176470589</v>
       </c>
     </row>
     <row r="38">
@@ -1971,13 +1971,13 @@
         <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9968051118210862</v>
+        <v>0.8815028901734104</v>
       </c>
       <c r="C38" t="n">
-        <v>0.973151590251962</v>
+        <v>0.7724850099933378</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8140288829944002</v>
+        <v>1.8932584269662922</v>
       </c>
     </row>
     <row r="39">
@@ -1985,13 +1985,13 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>1.032590051457976</v>
+        <v>1.0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.059616169865251</v>
+        <v>1.0429472025216706</v>
       </c>
       <c r="D39" t="n">
-        <v>1.084815321477428</v>
+        <v>2.772727272727273</v>
       </c>
     </row>
     <row r="40">
@@ -1999,13 +1999,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>1.0848972296693475</v>
+        <v>1.0226876090750436</v>
       </c>
       <c r="C40" t="n">
-        <v>1.1196787148594378</v>
+        <v>1.0257879656160458</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0442477876106195</v>
+        <v>3.2660550458715596</v>
       </c>
     </row>
     <row r="41">
@@ -2013,13 +2013,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9704194260485651</v>
+        <v>0.9437716262975778</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9669390787518574</v>
+        <v>0.9876923076923076</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9976944359053181</v>
+        <v>3.527054108216433</v>
       </c>
     </row>
     <row r="42">
@@ -2027,13 +2027,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9381679389312977</v>
+        <v>0.9141302156823221</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9753202124336144</v>
+        <v>1.0118805159538358</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0216022889842633</v>
+        <v>3.563204005006258</v>
       </c>
     </row>
     <row r="43">
@@ -2041,13 +2041,13 @@
         <v>14</v>
       </c>
       <c r="B43" t="n">
-        <v>1.045216349752957</v>
+        <v>0.9334422819789036</v>
       </c>
       <c r="C43" t="n">
-        <v>1.2087962962962964</v>
+        <v>1.0972972972972972</v>
       </c>
       <c r="D43" t="n">
-        <v>1.203142380422692</v>
+        <v>2.694951664876477</v>
       </c>
     </row>
     <row r="44">
@@ -2055,13 +2055,13 @@
         <v>15</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9770610724438781</v>
+        <v>1.0367041689900613</v>
       </c>
       <c r="C44" t="n">
-        <v>1.1673676577229877</v>
+        <v>1.1945059813912273</v>
       </c>
       <c r="D44" t="n">
-        <v>1.4142682926829269</v>
+        <v>3.2304445694991557</v>
       </c>
     </row>
     <row r="45">
@@ -2069,13 +2069,13 @@
         <v>16</v>
       </c>
       <c r="B45" t="n">
-        <v>1.9955325203898313</v>
+        <v>1.8321407881757974</v>
       </c>
       <c r="C45" t="n">
-        <v>1.2646851296524961</v>
+        <v>1.3019341264060855</v>
       </c>
       <c r="D45" t="n">
-        <v>2.091281829952525</v>
+        <v>3.499214042441708</v>
       </c>
     </row>
     <row r="46">
@@ -2083,13 +2083,13 @@
         <v>17</v>
       </c>
       <c r="B46" t="n">
-        <v>2.019288974297382</v>
+        <v>1.7017581210081725</v>
       </c>
       <c r="C46" t="n">
-        <v>1.427181482998771</v>
+        <v>1.1837673649886096</v>
       </c>
       <c r="D46" t="n">
-        <v>3.1144148430066605</v>
+        <v>2.933998610497063</v>
       </c>
     </row>
     <row r="47">
@@ -2097,13 +2097,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>2.090432763664837</v>
+        <v>1.9662736881606104</v>
       </c>
       <c r="C47" t="n">
-        <v>1.3033971105037094</v>
+        <v>1.1692819046146712</v>
       </c>
       <c r="D47" t="n">
-        <v>4.052833127799053</v>
+        <v>3.061058727972596</v>
       </c>
     </row>
   </sheetData>
